--- a/biology/Origine et évolution du vivant/Lophopodidae/Lophopodidae.xlsx
+++ b/biology/Origine et évolution du vivant/Lophopodidae/Lophopodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phylactolaemata
 Les Lophopodidae sont une famille de bryozoaires, de la classe des Phylactolaemata (ou Phylactolémés dans la classification phylogénétique, ou autrefois dénommée Plumatellida) est – dans l'embranchement des Ectoproctes l'une des trois classes de phylum des bryozoaires (Bryozoa ; les deux autres étant  Stenolaemata et Gymnolaemata).
-Cette famille a été décrite par Mary Dora Rogick (d) en 1935 et compte à ce jour trois genres et huit espèces[1],[2], souvent discrètes et parfois rares. Des bryozoaires sont régulièrement décrits ou découverts dans des pays où ils n'étaient pas encore connus, y compris dans des régions du monde où la pression des inventaires naturalistes est considérée comme élevée. Certains, comme  Lophopus crystallinus (Plumatellida, Lophopodidae) décrit par Pallas en 1768, bien que rares, commencent à être un peu mieux connus, au moins pour leur autécologie, au Royaume-Uni pour cet exemple[3]
+Cette famille a été décrite par Mary Dora Rogick (d) en 1935 et compte à ce jour trois genres et huit espèces souvent discrètes et parfois rares. Des bryozoaires sont régulièrement décrits ou découverts dans des pays où ils n'étaient pas encore connus, y compris dans des régions du monde où la pression des inventaires naturalistes est considérée comme élevée. Certains, comme  Lophopus crystallinus (Plumatellida, Lophopodidae) décrit par Pallas en 1768, bien que rares, commencent à être un peu mieux connus, au moins pour leur autécologie, au Royaume-Uni pour cet exemple
 Toutes les espèces de cette famille (et de la classe des Phylactolaemata) des vivent en eau douce, alors que la plupart des ectoproctes (bryozoaires) vivent en mer et souvent en zone tropicale.
 Ce sont tous des animaux filtreurs et coloniaux qui se nourrissent en filtrant des microparticules en suspension (plancton, nano ou microdébris de matière organique) qu'elles trouvent dans l'eau. Elles captent ces particules au moyen d'une minuscule couronne extensible/rétractile de tentacules ciliés dit « lophophore ».
 Ils vivent en colonies (parfois géantes chez certaines espèces). Dans ces colonies, chaque individu est un clone du « membre fondateur ». La cohérence physique de certaines grandes colonie est assurée par une sorte d'exosquelette individuel sécrété par les zoïdes, mais à la différence des coraux, ce squelette n'est pas minéralisé ; il est constitué d'une substance (protéine) gélatineuse (et plus ou moins dure et colorées selon les espèces, le stade de croissance et l'environnement).
@@ -516,9 +528,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les données disponibles, les espèces de ''Phylactolaematae'' sont principalement réparties dans l'hémisphère sud. Et selon Lacourt, la distribution actuelle qui laisse supposer qu'elles datent au moins de l'époque où les continents étaient réunis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les données disponibles, les espèces de ''Phylactolaematae'' sont principalement réparties dans l'hémisphère sud. Et selon Lacourt, la distribution actuelle qui laisse supposer qu'elles datent au moins de l'époque où les continents étaient réunis.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir le chapitre reproduction de l'article consacré aux ''Phylactolaematae''
 </t>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,9 +622,11 @@
           <t>Identification et taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les clé de détermination (de même que les hypothèses sur l'évolution de ce groupe) sont basées sur la description des zoarium, mais ces derniers sont souvent peu distincts. Ce sont donc surtout les statoblastes qui servent à identifier les espèces, et à déterminer les relations évolutives d'une espèce à l'autre ou d'espèces fossiles à des espèces contemporaines[4]. Une nouvelle clé a été produite en 2005 pour les espèces européennes par TS. Wood &amp; B. Okamura[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clé de détermination (de même que les hypothèses sur l'évolution de ce groupe) sont basées sur la description des zoarium, mais ces derniers sont souvent peu distincts. Ce sont donc surtout les statoblastes qui servent à identifier les espèces, et à déterminer les relations évolutives d'une espèce à l'autre ou d'espèces fossiles à des espèces contemporaines. Une nouvelle clé a été produite en 2005 pour les espèces européennes par TS. Wood &amp; B. Okamura.
 </t>
         </is>
       </c>
@@ -635,10 +655,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux phylogénies controversées ont été proposées pour les phylactolaemates en ce qui concerne la relation de la famille des Lophopodidae à d'autres familles. Deux genres de Plumatellidae (Gelatinella et Hyalinella) sont candidats comme type ancestral possible des lophopodidés. La coexistence de structures en épines sur les statoblastes de ces deux espèces peut suggérer que les lophopodidés sont étroitement liées à la famille des Cristatellidae. Une étude génétique (de l'ADN mitochondrial des gènes 12S et 16S ADNr de 10 espèces de phylactolaemate) suggère que les plumatellidés pourraient ne pas être un groupe ancestrale direct des lophopodidés, et que cristatellidés ne sont pas non plus un groupe sœur des lophopodidés[6]. Fredericella, qui était auparavant considéré comme un groupe ancestral en serait en fait dérivé. De plus, ces analyses suggèrent que Stephanella est en réalité le plus ancien des phylactolaemates connus[6]. L'application des caractéristiques morphologiques à l'arbre phylogénétique basée sur le séquençage génétique laisse penser qu'il y a eu une évolution convergente de caractères de statoblastes produits par des espèces différentes[7] (peut-être en lien à un même type de coévolution avec d'autres espèces, impliquées dans la zoochorie[6].
-Cladogramme construit d'après le Catalogue of Life[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux phylogénies controversées ont été proposées pour les phylactolaemates en ce qui concerne la relation de la famille des Lophopodidae à d'autres familles. Deux genres de Plumatellidae (Gelatinella et Hyalinella) sont candidats comme type ancestral possible des lophopodidés. La coexistence de structures en épines sur les statoblastes de ces deux espèces peut suggérer que les lophopodidés sont étroitement liées à la famille des Cristatellidae. Une étude génétique (de l'ADN mitochondrial des gènes 12S et 16S ADNr de 10 espèces de phylactolaemate) suggère que les plumatellidés pourraient ne pas être un groupe ancestrale direct des lophopodidés, et que cristatellidés ne sont pas non plus un groupe sœur des lophopodidés. Fredericella, qui était auparavant considéré comme un groupe ancestral en serait en fait dérivé. De plus, ces analyses suggèrent que Stephanella est en réalité le plus ancien des phylactolaemates connus. L'application des caractéristiques morphologiques à l'arbre phylogénétique basée sur le séquençage génétique laisse penser qu'il y a eu une évolution convergente de caractères de statoblastes produits par des espèces différentes (peut-être en lien à un même type de coévolution avec d'autres espèces, impliquées dans la zoochorie.
+Cladogramme construit d'après le Catalogue of Life :
 </t>
         </is>
       </c>
